--- a/IC Diet Choice.xlsx
+++ b/IC Diet Choice.xlsx
@@ -1,16 +1,16 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
 <workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
-  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="10514"/>
+  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="10910"/>
   <workbookPr defaultThemeVersion="166925"/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
-      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="/Users/lawilson1999/Library/Mobile Documents/com~apple~CloudDocs/Psychology MA/Second Year (2022-2023)/Thesis/"/>
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="/Users/lawilson1999/Library/Mobile Documents/com~apple~CloudDocs/Psychology MA/Second Year (2022-2023)/Thesis/Thesis Analyses (IC)/"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{551C260E-990F-494B-8267-2F4DEE1C4C32}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{8276178E-6F36-F340-9F48-EF3357D59CE3}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="0" yWindow="760" windowWidth="28800" windowHeight="16340" activeTab="7" xr2:uid="{CAAA04D1-08D5-5C45-8FA3-FCC17EC5C807}"/>
+    <workbookView xWindow="0" yWindow="900" windowWidth="28800" windowHeight="16340" activeTab="7" xr2:uid="{CAAA04D1-08D5-5C45-8FA3-FCC17EC5C807}"/>
   </bookViews>
   <sheets>
     <sheet name="Day 1 (3-27)" sheetId="1" r:id="rId1"/>
